--- a/Template.xlsx
+++ b/Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/34b6dee9d188c71f/MyProjects/Schedulerv2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/34b6dee9d188c71f/CV/Github/Scheduler/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{822E7D6E-81BD-46DF-83BA-C33D2D78659F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{171F9EC4-3F08-4AAA-A5EC-A0D3C48050F1}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{822E7D6E-81BD-46DF-83BA-C33D2D78659F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53F45C95-24ED-4B97-ADFE-9CF278CF5EF2}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4710" yWindow="2160" windowWidth="21600" windowHeight="17235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="New20256APP(final)" sheetId="3" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="55">
   <si>
     <t>Day</t>
   </si>
@@ -216,7 +216,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,6 +267,24 @@
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="10">
@@ -477,7 +495,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
@@ -530,6 +548,42 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
@@ -563,6 +617,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -882,896 +940,869 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9E3936-17BB-4D73-87AF-4DD3E416CF32}">
-  <dimension ref="A1:X16"/>
+  <dimension ref="A1:X14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="20" t="s">
+      <c r="A1" s="20"/>
+      <c r="B1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="20" t="s">
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="23" t="s">
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="25"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="31"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="22"/>
+      <c r="B2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4" t="s">
+      <c r="I2" s="23"/>
+      <c r="J2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4" t="s">
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="S2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="T2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="U2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="V2" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="W2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="X2" s="5" t="s">
+      <c r="X2" s="24" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="22">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="3">
+      <c r="B3" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="22">
         <v>1</v>
       </c>
-      <c r="J3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="N3" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="P3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q3" s="3">
+      <c r="J3" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q3" s="22">
         <v>1</v>
       </c>
-      <c r="R3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="S3" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="T3" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="U3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="V3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="W3" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="X3" s="11" t="s">
+      <c r="R3" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="S3" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="T3" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="U3" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="V3" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="W3" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="X3" s="25" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="22">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="3">
+      <c r="B4" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="22">
         <v>2</v>
       </c>
-      <c r="J4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="P4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q4" s="3">
+      <c r="J4" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="22">
         <v>2</v>
       </c>
-      <c r="R4" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="S4" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="T4" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="U4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="V4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="W4" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="X4" s="10" t="s">
+      <c r="R4" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="S4" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="T4" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25"/>
+      <c r="W4" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="X4" s="25" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="22">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="3">
+      <c r="B5" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="22">
         <v>3</v>
       </c>
-      <c r="J5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q5" s="3">
+      <c r="J5" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="22">
         <v>3</v>
       </c>
-      <c r="R5" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="S5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="T5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="U5" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="V5" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="W5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="X5" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="R5" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25"/>
+      <c r="U5" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="V5" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="W5" s="25"/>
+      <c r="X5" s="25"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="22">
         <v>4</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="3">
+      <c r="B6" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="22">
         <v>4</v>
       </c>
-      <c r="K6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="O6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="P6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q6" s="3">
+      <c r="K6" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="P6" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="22">
         <v>4</v>
       </c>
-      <c r="R6" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="S6" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="T6" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="U6" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="V6" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="W6" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="X6" s="11" t="s">
+      <c r="R6" s="25"/>
+      <c r="S6" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="T6" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="U6" s="25"/>
+      <c r="V6" s="25"/>
+      <c r="W6" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="X6" s="25" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="22">
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="3">
+      <c r="B7" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="22">
         <v>5</v>
       </c>
-      <c r="J7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N7" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="O7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="P7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q7" s="3">
+      <c r="J7" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="N7" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="O7" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q7" s="22">
         <v>5</v>
       </c>
-      <c r="R7" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="S7" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="T7" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="U7" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="V7" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="W7" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="X7" s="10" t="s">
+      <c r="R7" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="S7" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="T7" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="U7" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="V7" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="W7" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="X7" s="25" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="22">
         <v>6</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" s="3">
+      <c r="B8" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="22">
         <v>6</v>
       </c>
-      <c r="J8" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="O8" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="P8" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q8" s="3">
+      <c r="J8" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="O8" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="P8" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8" s="22">
         <v>6</v>
       </c>
-      <c r="R8" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="S8" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="T8" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="U8" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="V8" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="W8" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="X8" s="11" t="s">
+      <c r="R8" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="S8" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="T8" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="U8" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="V8" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="W8" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="X8" s="25" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9" s="22">
         <v>7</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="3">
+      <c r="B9" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="22">
         <v>7</v>
       </c>
-      <c r="J9" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q9" s="3">
+      <c r="J9" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="M9" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q9" s="22">
         <v>7</v>
       </c>
-      <c r="R9" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="S9" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="T9" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="U9" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="V9" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="W9" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="X9" s="10" t="s">
+      <c r="R9" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="S9" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="T9" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="U9" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="V9" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="W9" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="X9" s="25" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="A10" s="22">
         <v>8</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="B10" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="22">
         <v>8</v>
       </c>
-      <c r="O10" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="P10" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q10" s="3">
+      <c r="O10" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="P10" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q10" s="22">
         <v>8</v>
       </c>
-      <c r="R10" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="S10" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="T10" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="U10" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="V10" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="W10" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="X10" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="R10" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="S10" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="T10" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="U10" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="V10" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="W10" s="25"/>
+      <c r="X10" s="25"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="A11" s="22">
         <v>9</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" s="3">
+      <c r="B11" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="22">
         <v>9</v>
       </c>
-      <c r="J11" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="N11" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="O11" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q11" s="3">
+      <c r="J11" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="N11" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="O11" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q11" s="22">
         <v>9</v>
       </c>
-      <c r="R11" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="S11" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="T11" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="U11" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="V11" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="W11" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="X11" s="11" t="s">
+      <c r="R11" s="25"/>
+      <c r="S11" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="T11" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="U11" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="V11" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="W11" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="X11" s="25" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>10</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I12" s="3">
-        <v>10</v>
-      </c>
-      <c r="L12" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="M12" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="N12" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="O12" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="P12" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>10</v>
-      </c>
-      <c r="R12" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="S12" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="T12" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="U12" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="V12" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="W12" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="X12" s="10" t="s">
+      <c r="A12" s="22">
+        <v>10</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="22">
+        <v>10</v>
+      </c>
+      <c r="L12" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="M12" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="N12" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="O12" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="P12" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q12" s="22">
+        <v>10</v>
+      </c>
+      <c r="R12" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="S12" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="T12" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="U12" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="V12" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="W12" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="X12" s="25" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>11</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13" s="3">
-        <v>11</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="L13" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="O13" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="P13" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q13" s="3">
-        <v>11</v>
-      </c>
-      <c r="R13" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="S13" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="T13" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="U13" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="V13" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="W13" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="X13" s="11" t="s">
+      <c r="A13" s="22">
+        <v>11</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="22">
+        <v>11</v>
+      </c>
+      <c r="J13" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="L13" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="O13" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="P13" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q13" s="22">
+        <v>11</v>
+      </c>
+      <c r="R13" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="S13" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="T13" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="U13" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="V13" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="W13" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="X13" s="25" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
-        <v>12</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" s="12">
-        <v>12</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="L14" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="N14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="O14" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="P14" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q14" s="12">
-        <v>12</v>
-      </c>
-      <c r="R14" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="S14" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="T14" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="U14" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="V14" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="W14" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="X14" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
+      <c r="A14" s="27">
+        <v>12</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="27">
+        <v>12</v>
+      </c>
+      <c r="J14" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="K14" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="M14" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="N14" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="O14" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="P14" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q14" s="27">
+        <v>12</v>
+      </c>
+      <c r="R14" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="S14" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="T14" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="U14" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="V14" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="W14" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="X14" s="25" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1795,33 +1826,33 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="34"/>
       <c r="I1" s="2"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="22"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="34"/>
       <c r="Q1" s="2"/>
-      <c r="R1" s="23" t="s">
+      <c r="R1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="25"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="37"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
@@ -2448,35 +2479,35 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="34"/>
       <c r="I1" s="2"/>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="22"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="34"/>
       <c r="Q1" s="2"/>
-      <c r="R1" s="23" t="s">
+      <c r="R1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="25"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="37"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
@@ -3530,35 +3561,35 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="34"/>
       <c r="I1" s="2"/>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="22"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="34"/>
       <c r="Q1" s="2"/>
-      <c r="R1" s="23" t="s">
+      <c r="R1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="25"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="37"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
@@ -4542,35 +4573,35 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="34"/>
       <c r="I1" s="2"/>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="22"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="34"/>
       <c r="Q1" s="2"/>
-      <c r="R1" s="23" t="s">
+      <c r="R1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="25"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="37"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
@@ -5555,15 +5586,15 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="25"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="37"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
@@ -5782,15 +5813,15 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="34"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
@@ -6009,15 +6040,15 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="34"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
@@ -6236,15 +6267,15 @@
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1" s="2"/>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="25"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="37"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="4"/>
@@ -6463,15 +6494,15 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="34"/>
       <c r="Q1" s="2"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
